--- a/target/ExcelReport/ExtentExcel.xlsx
+++ b/target/ExcelReport/ExtentExcel.xlsx
@@ -277,22 +277,22 @@
     <t>device</t>
   </si>
   <si>
-    <t>Apr 26, 2023 2:16:46 PM</t>
+    <t>May 03, 2023 1:11:45 PM</t>
   </si>
   <si>
-    <t>Apr 26, 2023 2:16:43 PM</t>
+    <t>May 03, 2023 1:10:48 PM</t>
   </si>
   <si>
-    <t>Apr 26, 2023 2:16:44 PM</t>
+    <t>May 03, 2023 1:11:41 PM</t>
   </si>
   <si>
-    <t>0.646 s</t>
+    <t>53.701 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>71%</t>
+    <t>86%</t>
   </si>
   <si>
     <t>Booking Feature</t>
@@ -301,16 +301,46 @@
     <t>Booking a roundTrip</t>
   </si>
   <si>
-    <t>0.019 s</t>
+    <t>52.983 s</t>
   </si>
   <si>
-    <t>0.023 s</t>
+    <t>52.989 s</t>
   </si>
   <si>
-    <t>And : Users selects Origin "&lt;Origin&gt;" and Destination "&lt;Destination&gt;"</t>
+    <t>And : User select the date and clicks on search button</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(@data-date,'2023-05-28')]"}
+  (Session info: chrome=112.0.5615.138)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.8.3', revision: 'e5e76298c3'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_60'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8d4a4cda1e15837e0b7c18f3a908539e, findElement {using=xpath, value=//span[contains(@data-date,'2023-05-28')]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 112.0.5615.138, chrome: {chromedriverVersion: 112.0.5615.49 (bd2a7bcb881c..., userDataDir: C:\Users\DINESH~1.ARU\AppDa...}, goog:chromeOptions: {debuggerAddress: localhost:58805}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58805/devtoo..., se:cdpVersion: 112.0.5615.138, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8d4a4cda1e15837e0b7c18f3a908539e
+	at sun.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at sun.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at sun.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.lang.reflect.Constructor.newInstance(Constructor.java:422)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.createException(W3CHttpResponseCodec.java:200)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:133)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:53)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:193)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:183)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:158)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:543)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:162)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:60)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:352)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:344)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:70)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:39)
+	at com.sun.proxy.$Proxy41.click(Unknown Source)
+	at base.GeneralMethod.selectthedate(GeneralMethod.java:64)
+	at stepDefinitions.BookingStepDefinitions.user_select_the_date_and_clicks_on_search_button(BookingStepDefinitions.java:39)
+	at ✽.: User select the date and clicks on search button(file:///D:/Dinesh_Arul/Automation_Projects/UI/Receipts/SwiggySimpliLearnCucumber%20_Booking_Com/src/test/java/features/Booking.feature:14)
+</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2625,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,12 +2695,7 @@
           <c:val>
             <c:numRef>
               <c:f>'DB Data'!$T$20</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3721,7 +3746,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3790,12 +3815,7 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$J$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -8482,7 +8502,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="A21F" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="A321" scenarios="true" objects="true"/>
   <mergeCells count="4">
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E38:F38"/>
@@ -8581,14 +8601,12 @@
         <v>7.0</v>
       </c>
       <c r="H22" s="91" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I22" s="92" t="n">
         <v>1.0</v>
       </c>
-      <c r="J22" s="93" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="J22" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8707,14 +8725,12 @@
         <v>7.0</v>
       </c>
       <c r="K22" s="103" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L22" s="104" t="n">
         <v>1.0</v>
       </c>
-      <c r="M22" s="105" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="M22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8774,7 +8790,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="F259" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="D1C1" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8838,7 +8854,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8885,9 +8901,7 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -9021,14 +9035,12 @@
         <v>41</v>
       </c>
       <c r="R20" s="76" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="S20" s="77" t="n">
         <v>1.0</v>
       </c>
-      <c r="T20" s="78" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="T20" s="78"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
